--- a/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822217365951488</v>
+        <v>0.9991976722346532</v>
       </c>
       <c r="D2">
-        <v>1.003013761232513</v>
+        <v>1.016570748059576</v>
       </c>
       <c r="E2">
-        <v>0.9907477895915036</v>
+        <v>1.005736871574353</v>
       </c>
       <c r="F2">
-        <v>0.9581074898776342</v>
+        <v>0.9760102825629277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034564662248663</v>
+        <v>1.040158015170264</v>
       </c>
       <c r="J2">
-        <v>1.004947514127063</v>
+        <v>1.021402407299122</v>
       </c>
       <c r="K2">
-        <v>1.014431268648953</v>
+        <v>1.027803953998863</v>
       </c>
       <c r="L2">
-        <v>1.002337545290443</v>
+        <v>1.017116857094957</v>
       </c>
       <c r="M2">
-        <v>0.9701830422318986</v>
+        <v>0.9878142682723332</v>
       </c>
       <c r="N2">
-        <v>1.006374654866215</v>
+        <v>1.022852915873981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9894111900580265</v>
+        <v>1.00359762185445</v>
       </c>
       <c r="D3">
-        <v>1.008382594817649</v>
+        <v>1.019789211031539</v>
       </c>
       <c r="E3">
-        <v>0.9966857618275695</v>
+        <v>1.00923982523118</v>
       </c>
       <c r="F3">
-        <v>0.9682067167888944</v>
+        <v>0.9830863800934283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036588456950319</v>
+        <v>1.041409339224695</v>
       </c>
       <c r="J3">
-        <v>1.010194738845485</v>
+        <v>1.023990690232386</v>
       </c>
       <c r="K3">
-        <v>1.018909330664656</v>
+        <v>1.030174994907252</v>
       </c>
       <c r="L3">
-        <v>1.007361225332907</v>
+        <v>1.019755830248775</v>
       </c>
       <c r="M3">
-        <v>0.9792632373642096</v>
+        <v>0.993940348044751</v>
       </c>
       <c r="N3">
-        <v>1.011629331245602</v>
+        <v>1.025444874465889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9939134831436621</v>
+        <v>1.006382486655329</v>
       </c>
       <c r="D4">
-        <v>1.011746927638116</v>
+        <v>1.021828619593375</v>
       </c>
       <c r="E4">
-        <v>1.000410748993589</v>
+        <v>1.011462650743058</v>
       </c>
       <c r="F4">
-        <v>0.9745164248789836</v>
+        <v>0.9875520171553146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037842592417257</v>
+        <v>1.042191730077262</v>
       </c>
       <c r="J4">
-        <v>1.013474174575372</v>
+        <v>1.025624324969308</v>
       </c>
       <c r="K4">
-        <v>1.021705615187745</v>
+        <v>1.031670541701717</v>
       </c>
       <c r="L4">
-        <v>1.010504219163624</v>
+        <v>1.021424672519931</v>
       </c>
       <c r="M4">
-        <v>0.9849324661966233</v>
+        <v>0.9978030369702531</v>
       </c>
       <c r="N4">
-        <v>1.014913424150382</v>
+        <v>1.027080829151519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9957725466284285</v>
+        <v>1.007538925248963</v>
       </c>
       <c r="D5">
-        <v>1.013136517146342</v>
+        <v>1.022676017363148</v>
       </c>
       <c r="E5">
-        <v>1.001950301086908</v>
+        <v>1.012387027145898</v>
       </c>
       <c r="F5">
-        <v>0.9771188613818814</v>
+        <v>0.9894036756696352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038357210023201</v>
+        <v>1.042514291083114</v>
       </c>
       <c r="J5">
-        <v>1.014826698865934</v>
+        <v>1.026301597199143</v>
       </c>
       <c r="K5">
-        <v>1.022858249001697</v>
+        <v>1.032290316366687</v>
       </c>
       <c r="L5">
-        <v>1.011801233691826</v>
+        <v>1.0221173054945</v>
       </c>
       <c r="M5">
-        <v>0.9872697592008464</v>
+        <v>0.9994038356197491</v>
       </c>
       <c r="N5">
-        <v>1.016267869180574</v>
+        <v>1.027759063185604</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9960827741827704</v>
+        <v>1.007732272724441</v>
       </c>
       <c r="D6">
-        <v>1.013368422851029</v>
+        <v>1.022817724663497</v>
       </c>
       <c r="E6">
-        <v>1.002207293589626</v>
+        <v>1.012541652724902</v>
       </c>
       <c r="F6">
-        <v>0.977552981770974</v>
+        <v>0.9897131086468495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038442893988398</v>
+        <v>1.042568082781481</v>
       </c>
       <c r="J6">
-        <v>1.015052303556752</v>
+        <v>1.026414766292256</v>
       </c>
       <c r="K6">
-        <v>1.023050473400037</v>
+        <v>1.032393862783587</v>
       </c>
       <c r="L6">
-        <v>1.012017623457117</v>
+        <v>1.022233086068472</v>
       </c>
       <c r="M6">
-        <v>0.9876595909714273</v>
+        <v>0.9996712961992024</v>
       </c>
       <c r="N6">
-        <v>1.016493794255929</v>
+        <v>1.027872392991811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939384537654103</v>
+        <v>1.006397994574353</v>
       </c>
       <c r="D7">
-        <v>1.011765590903032</v>
+        <v>1.021839981274427</v>
       </c>
       <c r="E7">
-        <v>1.000431422366151</v>
+        <v>1.011475041488182</v>
       </c>
       <c r="F7">
-        <v>0.97455139122191</v>
+        <v>0.9875768583264029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037849517552111</v>
+        <v>1.042196064898548</v>
       </c>
       <c r="J7">
-        <v>1.013492347836273</v>
+        <v>1.025633411631224</v>
       </c>
       <c r="K7">
-        <v>1.021721105145554</v>
+        <v>1.031678857949606</v>
       </c>
       <c r="L7">
-        <v>1.010521643571691</v>
+        <v>1.021433962255721</v>
       </c>
       <c r="M7">
-        <v>0.9849638740231148</v>
+        <v>0.9978245160996156</v>
       </c>
       <c r="N7">
-        <v>1.014931623219397</v>
+        <v>1.027089928717536</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9846838194102391</v>
+        <v>1.000697889032502</v>
       </c>
       <c r="D8">
-        <v>1.004851824788934</v>
+        <v>1.017667601952298</v>
       </c>
       <c r="E8">
-        <v>0.9927798789703475</v>
+        <v>1.006930027193575</v>
       </c>
       <c r="F8">
-        <v>0.9615695746319375</v>
+        <v>0.9784259540937926</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035260488882</v>
+        <v>1.040586670181813</v>
       </c>
       <c r="J8">
-        <v>1.00674583654474</v>
+        <v>1.022285866364265</v>
       </c>
       <c r="K8">
-        <v>1.015966473676807</v>
+        <v>1.028613456452567</v>
       </c>
       <c r="L8">
-        <v>1.004058547833503</v>
+        <v>1.018016938037574</v>
       </c>
       <c r="M8">
-        <v>0.9732965635727456</v>
+        <v>0.9899063131270035</v>
       </c>
       <c r="N8">
-        <v>1.008175531107995</v>
+        <v>1.02373762955233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9671197758606344</v>
+        <v>0.9901496897661551</v>
       </c>
       <c r="D9">
-        <v>0.9917542243604104</v>
+        <v>1.00996744242305</v>
       </c>
       <c r="E9">
-        <v>0.978315417920564</v>
+        <v>0.9985666925028462</v>
       </c>
       <c r="F9">
-        <v>0.9367771266190046</v>
+        <v>0.9613675806937133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030241537129509</v>
+        <v>1.037532947914356</v>
       </c>
       <c r="J9">
-        <v>0.9938895464635922</v>
+        <v>1.016055148127165</v>
       </c>
       <c r="K9">
-        <v>1.004982515380384</v>
+        <v>1.022900848579581</v>
       </c>
       <c r="L9">
-        <v>0.9917703909241991</v>
+        <v>1.011683067003901</v>
       </c>
       <c r="M9">
-        <v>0.9509866047606808</v>
+        <v>0.9751201648954139</v>
       </c>
       <c r="N9">
-        <v>0.995300983620295</v>
+        <v>1.01749806298066</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9543895583033263</v>
+        <v>0.9827371213020163</v>
       </c>
       <c r="D10">
-        <v>0.9822870075816363</v>
+        <v>1.004573768271493</v>
       </c>
       <c r="E10">
-        <v>0.9678783482685356</v>
+        <v>0.9927243518895879</v>
       </c>
       <c r="F10">
-        <v>0.9186440762549072</v>
+        <v>0.9492638757410619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026536023450771</v>
+        <v>1.035337524898286</v>
       </c>
       <c r="J10">
-        <v>0.9845374205808806</v>
+        <v>1.011652798707654</v>
       </c>
       <c r="K10">
-        <v>0.9969836137528449</v>
+        <v>1.018860930063825</v>
       </c>
       <c r="L10">
-        <v>0.9828528429482603</v>
+        <v>1.007226224825964</v>
       </c>
       <c r="M10">
-        <v>0.9346559265017407</v>
+        <v>0.9646138697754104</v>
       </c>
       <c r="N10">
-        <v>0.9859355766461261</v>
+        <v>1.013089461720017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485870960274562</v>
+        <v>0.9794268300809953</v>
       </c>
       <c r="D11">
-        <v>0.9779804027627838</v>
+        <v>1.002169988726417</v>
       </c>
       <c r="E11">
-        <v>0.9631341427939524</v>
+        <v>0.9901242130391321</v>
       </c>
       <c r="F11">
-        <v>0.9103234473953387</v>
+        <v>0.9438228098203363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024831934886195</v>
+        <v>1.034345731913145</v>
       </c>
       <c r="J11">
-        <v>0.9802669583636248</v>
+        <v>1.009681249272224</v>
       </c>
       <c r="K11">
-        <v>0.9933298764866626</v>
+        <v>1.017051097937899</v>
       </c>
       <c r="L11">
-        <v>0.9787864729153284</v>
+        <v>1.005234806755729</v>
       </c>
       <c r="M11">
-        <v>0.9271608538336359</v>
+        <v>0.9598880440882491</v>
       </c>
       <c r="N11">
-        <v>0.9816590498826926</v>
+        <v>1.01111511245825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9463832925436373</v>
+        <v>0.9781811543011727</v>
       </c>
       <c r="D12">
-        <v>0.9763462573543961</v>
+        <v>1.001266243960464</v>
       </c>
       <c r="E12">
-        <v>0.9613344177189919</v>
+        <v>0.9891471692782938</v>
       </c>
       <c r="F12">
-        <v>0.9071531285741187</v>
+        <v>0.9417691370615635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024182539196642</v>
+        <v>1.033970840467046</v>
       </c>
       <c r="J12">
-        <v>0.9786438781809506</v>
+        <v>1.008938517860277</v>
       </c>
       <c r="K12">
-        <v>0.9919411032373706</v>
+        <v>1.016369224876396</v>
       </c>
       <c r="L12">
-        <v>0.9772418715440646</v>
+        <v>1.004485288519239</v>
       </c>
       <c r="M12">
-        <v>0.9243050411807096</v>
+        <v>0.9581039663930038</v>
       </c>
       <c r="N12">
-        <v>0.980033664739989</v>
+        <v>1.010371326282504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9468582989620319</v>
+        <v>0.9784491004923075</v>
       </c>
       <c r="D13">
-        <v>0.9766984072142504</v>
+        <v>1.00146060284356</v>
       </c>
       <c r="E13">
-        <v>0.9617222292125254</v>
+        <v>0.9893572682830687</v>
       </c>
       <c r="F13">
-        <v>0.9078369447623613</v>
+        <v>0.9422111771155099</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024322606009366</v>
+        <v>1.034051555206441</v>
       </c>
       <c r="J13">
-        <v>0.978993766833032</v>
+        <v>1.009098317593168</v>
       </c>
       <c r="K13">
-        <v>0.992240484807032</v>
+        <v>1.016515933349806</v>
       </c>
       <c r="L13">
-        <v>0.9775748003762694</v>
+        <v>1.00464651662326</v>
       </c>
       <c r="M13">
-        <v>0.9249210194147777</v>
+        <v>0.9584879931852576</v>
       </c>
       <c r="N13">
-        <v>0.9803840502740893</v>
+        <v>1.010531352949345</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9484059498850456</v>
+        <v>0.9793241962188532</v>
       </c>
       <c r="D14">
-        <v>0.9778460485144774</v>
+        <v>1.002095510483954</v>
       </c>
       <c r="E14">
-        <v>0.9629861660508576</v>
+        <v>0.9900436835721993</v>
       </c>
       <c r="F14">
-        <v>0.9100630725079196</v>
+        <v>0.9436537338104305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024778599945199</v>
+        <v>1.034314877677704</v>
       </c>
       <c r="J14">
-        <v>0.9801335688795585</v>
+        <v>1.009620070891641</v>
       </c>
       <c r="K14">
-        <v>0.9932157443625957</v>
+        <v>1.016994933589701</v>
       </c>
       <c r="L14">
-        <v>0.9786595142569015</v>
+        <v>1.005173055064591</v>
       </c>
       <c r="M14">
-        <v>0.9269263088029928</v>
+        <v>0.9597411704740514</v>
       </c>
       <c r="N14">
-        <v>0.981525470970259</v>
+        <v>1.011053847197348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493529197170021</v>
+        <v>0.9798612094373527</v>
       </c>
       <c r="D15">
-        <v>0.9785484697104405</v>
+        <v>1.002485237779314</v>
       </c>
       <c r="E15">
-        <v>0.9637598259712052</v>
+        <v>0.9904650968601555</v>
       </c>
       <c r="F15">
-        <v>0.9114238016726106</v>
+        <v>0.9445381369543443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025057329041035</v>
+        <v>1.03447624883244</v>
       </c>
       <c r="J15">
-        <v>0.9808308372636095</v>
+        <v>1.009940141993112</v>
       </c>
       <c r="K15">
-        <v>0.9938123453221791</v>
+        <v>1.017288769958286</v>
       </c>
       <c r="L15">
-        <v>0.9793232039833326</v>
+        <v>1.005496154129304</v>
       </c>
       <c r="M15">
-        <v>0.9281520493974219</v>
+        <v>0.9605094228364496</v>
       </c>
       <c r="N15">
-        <v>0.9822237295553933</v>
+        <v>1.011374372836496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9547681333348381</v>
+        <v>0.9829546138725722</v>
       </c>
       <c r="D16">
-        <v>0.9825681831440013</v>
+        <v>1.004731809285994</v>
       </c>
       <c r="E16">
-        <v>0.968188162790019</v>
+        <v>0.992895376604728</v>
       </c>
       <c r="F16">
-        <v>0.9191856606422713</v>
+        <v>0.9496205538445029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026646900883396</v>
+        <v>1.035402453795564</v>
       </c>
       <c r="J16">
-        <v>0.9848158845189914</v>
+        <v>1.011782218215722</v>
       </c>
       <c r="K16">
-        <v>0.9972218452791685</v>
+        <v>1.01897972357026</v>
       </c>
       <c r="L16">
-        <v>0.983118119971385</v>
+        <v>1.007357044229731</v>
       </c>
       <c r="M16">
-        <v>0.9351437593718382</v>
+        <v>0.9649236077484519</v>
       </c>
       <c r="N16">
-        <v>0.9862144360349692</v>
+        <v>1.013219065018631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.958084036186612</v>
+        <v>0.984867431561025</v>
       </c>
       <c r="D17">
-        <v>0.9850319624356989</v>
+        <v>1.00612232552799</v>
       </c>
       <c r="E17">
-        <v>0.9709032841898153</v>
+        <v>0.9944005367412464</v>
       </c>
       <c r="F17">
-        <v>0.9239229315308837</v>
+        <v>0.9527533323101419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027616378619691</v>
+        <v>1.035972206889422</v>
       </c>
       <c r="J17">
-        <v>0.987254057349697</v>
+        <v>1.012919814738319</v>
       </c>
       <c r="K17">
-        <v>0.9993076261436122</v>
+        <v>1.020023853049872</v>
       </c>
       <c r="L17">
-        <v>0.9854414715284323</v>
+        <v>1.008507462352621</v>
       </c>
       <c r="M17">
-        <v>0.9394107131803004</v>
+        <v>0.9676437849451811</v>
       </c>
       <c r="N17">
-        <v>0.9886560713507567</v>
+        <v>1.014358277058774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9599905175603985</v>
+        <v>0.9859735093757261</v>
       </c>
       <c r="D18">
-        <v>0.986449300152257</v>
+        <v>1.006926846161919</v>
       </c>
       <c r="E18">
-        <v>0.9724655517604651</v>
+        <v>0.9952717297107225</v>
       </c>
       <c r="F18">
-        <v>0.9266415632926419</v>
+        <v>0.9545615110674338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028172361154512</v>
+        <v>1.036300585365663</v>
       </c>
       <c r="J18">
-        <v>0.9886551614568084</v>
+        <v>1.013577098056793</v>
       </c>
       <c r="K18">
-        <v>1.000506108938036</v>
+        <v>1.020627074900209</v>
       </c>
       <c r="L18">
-        <v>0.9867771168831326</v>
+        <v>1.009172581451756</v>
       </c>
       <c r="M18">
-        <v>0.9418592870191101</v>
+        <v>0.9692135444422976</v>
       </c>
       <c r="N18">
-        <v>0.990059165186409</v>
+        <v>1.015016493794951</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9606360285816092</v>
+        <v>0.9863490469569546</v>
       </c>
       <c r="D19">
-        <v>0.9869293199167745</v>
+        <v>1.007200074733835</v>
       </c>
       <c r="E19">
-        <v>0.972994715610921</v>
+        <v>0.9955676597562719</v>
       </c>
       <c r="F19">
-        <v>0.9275612454258892</v>
+        <v>0.9551748837426636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028360366491502</v>
+        <v>1.036411893138264</v>
       </c>
       <c r="J19">
-        <v>0.9891294340884299</v>
+        <v>1.013800170596742</v>
       </c>
       <c r="K19">
-        <v>1.000911771994493</v>
+        <v>1.020831789232841</v>
       </c>
       <c r="L19">
-        <v>0.9872293189945898</v>
+        <v>1.009398385422433</v>
       </c>
       <c r="M19">
-        <v>0.9426875812338373</v>
+        <v>0.969745991990961</v>
       </c>
       <c r="N19">
-        <v>0.9905341113395674</v>
+        <v>1.015239883123494</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9577311619067422</v>
+        <v>0.9846632078123498</v>
       </c>
       <c r="D20">
-        <v>0.9847696868097003</v>
+        <v>1.005973817439363</v>
       </c>
       <c r="E20">
-        <v>0.9706142176295957</v>
+        <v>0.9942397492201875</v>
       </c>
       <c r="F20">
-        <v>0.9234193352963246</v>
+        <v>0.9524192098783837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027513354999942</v>
+        <v>1.035911488383556</v>
       </c>
       <c r="J20">
-        <v>0.9869946652872176</v>
+        <v>1.012798412790577</v>
       </c>
       <c r="K20">
-        <v>0.9990857360257411</v>
+        <v>1.01991243154731</v>
       </c>
       <c r="L20">
-        <v>0.9851942401892105</v>
+        <v>1.008384647597818</v>
       </c>
       <c r="M20">
-        <v>0.9389571287163321</v>
+        <v>0.9673536959736362</v>
       </c>
       <c r="N20">
-        <v>0.9883963109217959</v>
+        <v>1.014236702706341</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479515879659638</v>
+        <v>0.9790669546449268</v>
       </c>
       <c r="D21">
-        <v>0.9775090782417817</v>
+        <v>1.001908851405557</v>
       </c>
       <c r="E21">
-        <v>0.9626150368403501</v>
+        <v>0.9898418671967799</v>
       </c>
       <c r="F21">
-        <v>0.909409815261263</v>
+        <v>0.943229859234478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024644787362658</v>
+        <v>1.034237517725487</v>
       </c>
       <c r="J21">
-        <v>0.979798974952882</v>
+        <v>1.009466720017254</v>
       </c>
       <c r="K21">
-        <v>0.9929294543927327</v>
+        <v>1.016854150030281</v>
       </c>
       <c r="L21">
-        <v>0.9783410662278134</v>
+        <v>1.005018278419958</v>
       </c>
       <c r="M21">
-        <v>0.9263378562677496</v>
+        <v>0.9593729517985091</v>
       </c>
       <c r="N21">
-        <v>0.9811904018818283</v>
+        <v>1.010900278547129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415190399647358</v>
+        <v>0.975454750682459</v>
       </c>
       <c r="D22">
-        <v>0.972742461211782</v>
+        <v>0.9992897854881353</v>
       </c>
       <c r="E22">
-        <v>0.9573662477308176</v>
+        <v>0.9870113593820244</v>
       </c>
       <c r="F22">
-        <v>0.9001346257859932</v>
+        <v>0.937261944053533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022745282349587</v>
+        <v>1.033147269392776</v>
       </c>
       <c r="J22">
-        <v>0.975059323236773</v>
+        <v>1.007311383000027</v>
       </c>
       <c r="K22">
-        <v>0.9888739496031171</v>
+        <v>1.014875325008224</v>
       </c>
       <c r="L22">
-        <v>0.9738323931533099</v>
+        <v>1.002844591012994</v>
       </c>
       <c r="M22">
-        <v>0.9179829407058657</v>
+        <v>0.9541878583670712</v>
       </c>
       <c r="N22">
-        <v>0.9764440193166369</v>
+        <v>1.008741880704118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9449578170618131</v>
+        <v>0.97737887034457</v>
       </c>
       <c r="D23">
-        <v>0.9752897126814208</v>
+        <v>1.000684418648085</v>
       </c>
       <c r="E23">
-        <v>0.9601709413540565</v>
+        <v>0.9885183008748715</v>
       </c>
       <c r="F23">
-        <v>0.9050993861385044</v>
+        <v>0.9404446096433149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023761893212703</v>
+        <v>1.033728921407612</v>
       </c>
       <c r="J23">
-        <v>0.9775937110030922</v>
+        <v>1.008459924507731</v>
       </c>
       <c r="K23">
-        <v>0.9910425235116667</v>
+        <v>1.015929831813431</v>
       </c>
       <c r="L23">
-        <v>0.9762427466490796</v>
+        <v>1.004002520984351</v>
       </c>
       <c r="M23">
-        <v>0.9224550490336649</v>
+        <v>0.9569532215887108</v>
       </c>
       <c r="N23">
-        <v>0.9789820062042828</v>
+        <v>1.009892053272502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9578906956243545</v>
+        <v>0.9847555174416417</v>
       </c>
       <c r="D24">
-        <v>0.9848882586418932</v>
+        <v>1.006040942030088</v>
       </c>
       <c r="E24">
-        <v>0.9707449002759463</v>
+        <v>0.9943124229646358</v>
       </c>
       <c r="F24">
-        <v>0.9236470257204888</v>
+        <v>0.9525702443138844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027559936181594</v>
+        <v>1.035938936643016</v>
       </c>
       <c r="J24">
-        <v>0.9871119381495226</v>
+        <v>1.012853288398608</v>
       </c>
       <c r="K24">
-        <v>0.9991860543850796</v>
+        <v>1.019962796016981</v>
       </c>
       <c r="L24">
-        <v>0.9853060134841383</v>
+        <v>1.008440160491363</v>
       </c>
       <c r="M24">
-        <v>0.9391622078567234</v>
+        <v>0.9674848266774756</v>
       </c>
       <c r="N24">
-        <v>0.9885137503250166</v>
+        <v>1.014291656244031</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718260503256472</v>
+        <v>0.9929404509608215</v>
       </c>
       <c r="D25">
-        <v>0.9952600776929598</v>
+        <v>1.012001928141431</v>
       </c>
       <c r="E25">
-        <v>0.9821838489777772</v>
+        <v>1.000773612107579</v>
       </c>
       <c r="F25">
-        <v>0.9434433396621809</v>
+        <v>0.9658982656235788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031598149017827</v>
+        <v>1.038349505920927</v>
       </c>
       <c r="J25">
-        <v>0.9973402588017609</v>
+        <v>1.017707755372736</v>
       </c>
       <c r="K25">
-        <v>1.007932423201799</v>
+        <v>1.024416743425368</v>
       </c>
       <c r="L25">
-        <v>0.995065180842281</v>
+        <v>1.01335993060336</v>
       </c>
       <c r="M25">
-        <v>0.9569880282160472</v>
+        <v>0.9790500882988047</v>
       </c>
       <c r="N25">
-        <v>0.9987565963657863</v>
+        <v>1.019153017118077</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9991976722346532</v>
+        <v>1.000079734136954</v>
       </c>
       <c r="D2">
-        <v>1.016570748059576</v>
+        <v>1.01656647879655</v>
       </c>
       <c r="E2">
-        <v>1.005736871574353</v>
+        <v>1.006547089254071</v>
       </c>
       <c r="F2">
-        <v>0.9760102825629277</v>
+        <v>1.016656813902358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040158015170264</v>
+        <v>1.040397066940713</v>
       </c>
       <c r="J2">
-        <v>1.021402407299122</v>
+        <v>1.022258060631658</v>
       </c>
       <c r="K2">
-        <v>1.027803953998863</v>
+        <v>1.027799741802656</v>
       </c>
       <c r="L2">
-        <v>1.017116857094957</v>
+        <v>1.017915960102306</v>
       </c>
       <c r="M2">
-        <v>0.9878142682723332</v>
+        <v>1.027888869535891</v>
       </c>
       <c r="N2">
-        <v>1.022852915873981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011368644498374</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.030644491471856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00359762185445</v>
+        <v>1.003476039070602</v>
       </c>
       <c r="D3">
-        <v>1.019789211031539</v>
+        <v>1.018873261497357</v>
       </c>
       <c r="E3">
-        <v>1.00923982523118</v>
+        <v>1.009178868512361</v>
       </c>
       <c r="F3">
-        <v>0.9830863800934283</v>
+        <v>1.019534017558199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041409339224695</v>
+        <v>1.041136179696325</v>
       </c>
       <c r="J3">
-        <v>1.023990690232386</v>
+        <v>1.023872390217076</v>
       </c>
       <c r="K3">
-        <v>1.030174994907252</v>
+        <v>1.029270218901544</v>
       </c>
       <c r="L3">
-        <v>1.019755830248775</v>
+        <v>1.019695635837014</v>
       </c>
       <c r="M3">
-        <v>0.993940348044751</v>
+        <v>1.029922911992402</v>
       </c>
       <c r="N3">
-        <v>1.025444874465889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011913325754784</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032254320250267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006382486655329</v>
+        <v>1.005634724845992</v>
       </c>
       <c r="D4">
-        <v>1.021828619593375</v>
+        <v>1.020342031732178</v>
       </c>
       <c r="E4">
-        <v>1.011462650743058</v>
+        <v>1.010857143394663</v>
       </c>
       <c r="F4">
-        <v>0.9875520171553146</v>
+        <v>1.02136949123329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042191730077262</v>
+        <v>1.041597406568311</v>
       </c>
       <c r="J4">
-        <v>1.025624324969308</v>
+        <v>1.024895383853816</v>
       </c>
       <c r="K4">
-        <v>1.031670541701717</v>
+        <v>1.030200992324212</v>
       </c>
       <c r="L4">
-        <v>1.021424672519931</v>
+        <v>1.020826274784351</v>
       </c>
       <c r="M4">
-        <v>0.9978030369702531</v>
+        <v>1.031216669094539</v>
       </c>
       <c r="N4">
-        <v>1.027080829151519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012258376569557</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033278253395824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007538925248963</v>
+        <v>1.00653315565516</v>
       </c>
       <c r="D5">
-        <v>1.022676017363148</v>
+        <v>1.020953906418847</v>
       </c>
       <c r="E5">
-        <v>1.012387027145898</v>
+        <v>1.011556926238558</v>
       </c>
       <c r="F5">
-        <v>0.9894036756696352</v>
+        <v>1.022134999111622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042514291083114</v>
+        <v>1.041787282239268</v>
       </c>
       <c r="J5">
-        <v>1.026301597199143</v>
+        <v>1.025320384498846</v>
       </c>
       <c r="K5">
-        <v>1.032290316366687</v>
+        <v>1.030587416858096</v>
       </c>
       <c r="L5">
-        <v>1.0221173054945</v>
+        <v>1.021296688532075</v>
       </c>
       <c r="M5">
-        <v>0.9994038356197491</v>
+        <v>1.031755324997097</v>
       </c>
       <c r="N5">
-        <v>1.027759063185604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012401698831214</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033704567625619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007732272724441</v>
+        <v>1.006683480570818</v>
       </c>
       <c r="D6">
-        <v>1.022817724663497</v>
+        <v>1.021056318074451</v>
       </c>
       <c r="E6">
-        <v>1.012541652724902</v>
+        <v>1.011674088845483</v>
       </c>
       <c r="F6">
-        <v>0.9897131086468495</v>
+        <v>1.022263176723051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042568082781481</v>
+        <v>1.041818928711605</v>
       </c>
       <c r="J6">
-        <v>1.026414766292256</v>
+        <v>1.025391449797513</v>
       </c>
       <c r="K6">
-        <v>1.032393862783587</v>
+        <v>1.030652016019489</v>
       </c>
       <c r="L6">
-        <v>1.022233086068472</v>
+        <v>1.021375388277764</v>
       </c>
       <c r="M6">
-        <v>0.9996712961992024</v>
+        <v>1.031845463969685</v>
       </c>
       <c r="N6">
-        <v>1.027872392991811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012425662344422</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033775907256142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006397994574353</v>
+        <v>1.005646765085742</v>
       </c>
       <c r="D7">
-        <v>1.021839981274427</v>
+        <v>1.020350229466195</v>
       </c>
       <c r="E7">
-        <v>1.011475041488182</v>
+        <v>1.010866516392352</v>
       </c>
       <c r="F7">
-        <v>0.9875768583264029</v>
+        <v>1.021379743841328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042196064898548</v>
+        <v>1.041599959439663</v>
       </c>
       <c r="J7">
-        <v>1.025633411631224</v>
+        <v>1.024901082505998</v>
       </c>
       <c r="K7">
-        <v>1.031678857949606</v>
+        <v>1.030206174778072</v>
       </c>
       <c r="L7">
-        <v>1.021433962255721</v>
+        <v>1.020832579620953</v>
       </c>
       <c r="M7">
-        <v>0.9978245160996156</v>
+        <v>1.031223887067076</v>
       </c>
       <c r="N7">
-        <v>1.027089928717536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012260298431039</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033283965995109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000697889032502</v>
+        <v>1.001235746316632</v>
       </c>
       <c r="D8">
-        <v>1.017667601952298</v>
+        <v>1.017351082667264</v>
       </c>
       <c r="E8">
-        <v>1.006930027193575</v>
+        <v>1.007441703934799</v>
       </c>
       <c r="F8">
-        <v>0.9784259540937926</v>
+        <v>1.017634717976139</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040586670181813</v>
+        <v>1.040650411774605</v>
       </c>
       <c r="J8">
-        <v>1.022285866364265</v>
+        <v>1.022808162829209</v>
       </c>
       <c r="K8">
-        <v>1.028613456452567</v>
+        <v>1.0283010418687</v>
       </c>
       <c r="L8">
-        <v>1.018016938037574</v>
+        <v>1.018521807399648</v>
       </c>
       <c r="M8">
-        <v>0.9899063131270035</v>
+        <v>1.028580998775259</v>
       </c>
       <c r="N8">
-        <v>1.02373762955233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011554273499768</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.031192272769712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9901496897661551</v>
+        <v>0.9931532079716302</v>
       </c>
       <c r="D9">
-        <v>1.00996744242305</v>
+        <v>1.011877816403006</v>
       </c>
       <c r="E9">
-        <v>0.9985666925028462</v>
+        <v>1.00121131314803</v>
       </c>
       <c r="F9">
-        <v>0.9613675806937133</v>
+        <v>1.010826683264901</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037532947914356</v>
+        <v>1.038844295730017</v>
       </c>
       <c r="J9">
-        <v>1.016055148127165</v>
+        <v>1.01895008261893</v>
       </c>
       <c r="K9">
-        <v>1.022900848579581</v>
+        <v>1.024781079531188</v>
       </c>
       <c r="L9">
-        <v>1.011683067003901</v>
+        <v>1.014284768165091</v>
       </c>
       <c r="M9">
-        <v>0.9751201648954139</v>
+        <v>1.023746513755572</v>
       </c>
       <c r="N9">
-        <v>1.01749806298066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010251981221971</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.027366041203152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9827371213020163</v>
+        <v>0.987621627172923</v>
       </c>
       <c r="D10">
-        <v>1.004573768271493</v>
+        <v>1.008159592945916</v>
       </c>
       <c r="E10">
-        <v>0.9927243518895879</v>
+        <v>0.9969885353705532</v>
       </c>
       <c r="F10">
-        <v>0.9492638757410619</v>
+        <v>1.006451851251682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035337524898286</v>
+        <v>1.037586881705375</v>
       </c>
       <c r="J10">
-        <v>1.011652798707654</v>
+        <v>1.016335119347323</v>
       </c>
       <c r="K10">
-        <v>1.018860930063825</v>
+        <v>1.022383069848232</v>
       </c>
       <c r="L10">
-        <v>1.007226224825964</v>
+        <v>1.011412376454602</v>
       </c>
       <c r="M10">
-        <v>0.9646138697754104</v>
+        <v>1.020705584513966</v>
       </c>
       <c r="N10">
-        <v>1.013089461720017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009372004035739</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025011593336884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9794268300809953</v>
+        <v>0.9858206899646852</v>
       </c>
       <c r="D11">
-        <v>1.002169988726417</v>
+        <v>1.007037287925957</v>
       </c>
       <c r="E11">
-        <v>0.9901242130391321</v>
+        <v>0.9956961946039387</v>
       </c>
       <c r="F11">
-        <v>0.9438228098203363</v>
+        <v>1.0069883277909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034345731913145</v>
+        <v>1.037335814587425</v>
       </c>
       <c r="J11">
-        <v>1.009681249272224</v>
+        <v>1.015795477712788</v>
       </c>
       <c r="K11">
-        <v>1.017051097937899</v>
+        <v>1.02182770046814</v>
       </c>
       <c r="L11">
-        <v>1.005234806755729</v>
+        <v>1.010699733367321</v>
       </c>
       <c r="M11">
-        <v>0.9598880440882491</v>
+        <v>1.021779646958624</v>
       </c>
       <c r="N11">
-        <v>1.01111511245825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009218063777964</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026304031144385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781811543011727</v>
+        <v>0.9853706652721366</v>
       </c>
       <c r="D12">
-        <v>1.001266243960464</v>
+        <v>1.006799270651879</v>
       </c>
       <c r="E12">
-        <v>0.9891471692782938</v>
+        <v>0.9954113898939883</v>
       </c>
       <c r="F12">
-        <v>0.9417691370615635</v>
+        <v>1.008011816305332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033970840467046</v>
+        <v>1.037351093304802</v>
       </c>
       <c r="J12">
-        <v>1.008938517860277</v>
+        <v>1.015807333910796</v>
       </c>
       <c r="K12">
-        <v>1.016369224876396</v>
+        <v>1.021797356482043</v>
       </c>
       <c r="L12">
-        <v>1.004485288519239</v>
+        <v>1.010627031619489</v>
       </c>
       <c r="M12">
-        <v>0.9581039663930038</v>
+        <v>1.022987115573016</v>
       </c>
       <c r="N12">
-        <v>1.010371326282504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009245331710325</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.027589348443293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9784491004923075</v>
+        <v>0.9859260874317098</v>
       </c>
       <c r="D13">
-        <v>1.00146060284356</v>
+        <v>1.007221644602591</v>
       </c>
       <c r="E13">
-        <v>0.9893572682830687</v>
+        <v>0.9958773205525689</v>
       </c>
       <c r="F13">
-        <v>0.9422111771155099</v>
+        <v>1.009499088918475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034051555206441</v>
+        <v>1.037574207809753</v>
       </c>
       <c r="J13">
-        <v>1.009098317593168</v>
+        <v>1.016243410402636</v>
       </c>
       <c r="K13">
-        <v>1.016515933349806</v>
+        <v>1.022168211188955</v>
       </c>
       <c r="L13">
-        <v>1.00464651662326</v>
+        <v>1.011039632122807</v>
       </c>
       <c r="M13">
-        <v>0.9584879931852576</v>
+        <v>1.024403105851043</v>
       </c>
       <c r="N13">
-        <v>1.010531352949345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009413473796099</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.028988277658477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9793241962188532</v>
+        <v>0.9867616083586217</v>
       </c>
       <c r="D14">
-        <v>1.002095510483954</v>
+        <v>1.0078096804732</v>
       </c>
       <c r="E14">
-        <v>0.9900436835721993</v>
+        <v>0.9965360544885089</v>
       </c>
       <c r="F14">
-        <v>0.9436537338104305</v>
+        <v>1.010724058730645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034314877677704</v>
+        <v>1.037820165833172</v>
       </c>
       <c r="J14">
-        <v>1.009620070891641</v>
+        <v>1.01673213984918</v>
       </c>
       <c r="K14">
-        <v>1.016994933589701</v>
+        <v>1.022602583019893</v>
       </c>
       <c r="L14">
-        <v>1.005173055064591</v>
+        <v>1.011540647797779</v>
       </c>
       <c r="M14">
-        <v>0.9597411704740514</v>
+        <v>1.025463237107847</v>
       </c>
       <c r="N14">
-        <v>1.011053847197348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009592031601385</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030000964261784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9798612094373527</v>
+        <v>0.9871911738484792</v>
       </c>
       <c r="D15">
-        <v>1.002485237779314</v>
+        <v>1.008102798304475</v>
       </c>
       <c r="E15">
-        <v>0.9904650968601555</v>
+        <v>0.9968667705211296</v>
       </c>
       <c r="F15">
-        <v>0.9445381369543443</v>
+        <v>1.011170351253122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03447624883244</v>
+        <v>1.037929354151377</v>
       </c>
       <c r="J15">
-        <v>1.009940141993112</v>
+        <v>1.016952316971333</v>
       </c>
       <c r="K15">
-        <v>1.017288769958286</v>
+        <v>1.022802420857651</v>
       </c>
       <c r="L15">
-        <v>1.005496154129304</v>
+        <v>1.01177576012381</v>
       </c>
       <c r="M15">
-        <v>0.9605094228364496</v>
+        <v>1.025813866651352</v>
       </c>
       <c r="N15">
-        <v>1.011374372836496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009669161945417</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030315893723104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9829546138725722</v>
+        <v>0.9894054958871473</v>
       </c>
       <c r="D16">
-        <v>1.004731809285994</v>
+        <v>1.00957750526409</v>
       </c>
       <c r="E16">
-        <v>0.992895376604728</v>
+        <v>0.9985418529039455</v>
       </c>
       <c r="F16">
-        <v>0.9496205538445029</v>
+        <v>1.01277589746315</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035402453795564</v>
+        <v>1.038422000289194</v>
       </c>
       <c r="J16">
-        <v>1.011782218215722</v>
+        <v>1.01796770076049</v>
       </c>
       <c r="K16">
-        <v>1.01897972357026</v>
+        <v>1.023739785364022</v>
       </c>
       <c r="L16">
-        <v>1.007357044229731</v>
+        <v>1.012900729326915</v>
       </c>
       <c r="M16">
-        <v>0.9649236077484519</v>
+        <v>1.026882236145257</v>
       </c>
       <c r="N16">
-        <v>1.013219065018631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010006714866035</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03112133775394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984867431561025</v>
+        <v>0.9906743107110529</v>
       </c>
       <c r="D17">
-        <v>1.00612232552799</v>
+        <v>1.010407292216986</v>
       </c>
       <c r="E17">
-        <v>0.9944005367412464</v>
+        <v>0.9994897276343788</v>
       </c>
       <c r="F17">
-        <v>0.9527533323101419</v>
+        <v>1.013370763835592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035972206889422</v>
+        <v>1.03867185653292</v>
       </c>
       <c r="J17">
-        <v>1.012919814738319</v>
+        <v>1.018495639396545</v>
       </c>
       <c r="K17">
-        <v>1.020023853049872</v>
+        <v>1.024235271819936</v>
       </c>
       <c r="L17">
-        <v>1.008507462352621</v>
+        <v>1.0135067096928</v>
       </c>
       <c r="M17">
-        <v>0.9676437849451811</v>
+        <v>1.027148347463958</v>
       </c>
       <c r="N17">
-        <v>1.014358277058774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010173640230916</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.031201666491871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9859735093757261</v>
+        <v>0.9912225012655067</v>
       </c>
       <c r="D18">
-        <v>1.006926846161919</v>
+        <v>1.010736444158026</v>
       </c>
       <c r="E18">
-        <v>0.9952717297107225</v>
+        <v>0.999874145057087</v>
       </c>
       <c r="F18">
-        <v>0.9545615110674338</v>
+        <v>1.012988260240116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036300585365663</v>
+        <v>1.03872259409877</v>
       </c>
       <c r="J18">
-        <v>1.013577098056793</v>
+        <v>1.018621262907105</v>
       </c>
       <c r="K18">
-        <v>1.020627074900209</v>
+        <v>1.02437239078947</v>
       </c>
       <c r="L18">
-        <v>1.009172581451756</v>
+        <v>1.013695051274927</v>
       </c>
       <c r="M18">
-        <v>0.9692135444422976</v>
+        <v>1.026586503292788</v>
       </c>
       <c r="N18">
-        <v>1.015016493794951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010198130641131</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.030517690353942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9863490469569546</v>
+        <v>0.9910892388008076</v>
       </c>
       <c r="D19">
-        <v>1.007200074733835</v>
+        <v>1.010590483131977</v>
       </c>
       <c r="E19">
-        <v>0.9955676597562719</v>
+        <v>0.999723078667386</v>
       </c>
       <c r="F19">
-        <v>0.9551748837426636</v>
+        <v>1.011613742171819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036411893138264</v>
+        <v>1.038582433246026</v>
       </c>
       <c r="J19">
-        <v>1.013800170596742</v>
+        <v>1.018356539225297</v>
       </c>
       <c r="K19">
-        <v>1.020831789232841</v>
+        <v>1.024165304516703</v>
       </c>
       <c r="L19">
-        <v>1.009398385422433</v>
+        <v>1.013482024741348</v>
       </c>
       <c r="M19">
-        <v>0.969745991990961</v>
+        <v>1.025171489153974</v>
       </c>
       <c r="N19">
-        <v>1.015239883123494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010086655979518</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.029069707232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9846632078123498</v>
+        <v>0.9890566370363099</v>
       </c>
       <c r="D20">
-        <v>1.005973817439363</v>
+        <v>1.009123187509466</v>
       </c>
       <c r="E20">
-        <v>0.9942397492201875</v>
+        <v>0.9980819228263811</v>
       </c>
       <c r="F20">
-        <v>0.9524192098783837</v>
+        <v>1.007595183453262</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035911488383556</v>
+        <v>1.037916924736031</v>
       </c>
       <c r="J20">
-        <v>1.012798412790577</v>
+        <v>1.017016023721255</v>
       </c>
       <c r="K20">
-        <v>1.01991243154731</v>
+        <v>1.023007491433024</v>
       </c>
       <c r="L20">
-        <v>1.008384647597818</v>
+        <v>1.012158583366127</v>
       </c>
       <c r="M20">
-        <v>0.9673536959736362</v>
+        <v>1.021505782631925</v>
       </c>
       <c r="N20">
-        <v>1.014236702706341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009601299340616</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025634153316915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9790669546449268</v>
+        <v>0.984782114404</v>
       </c>
       <c r="D21">
-        <v>1.001908851405557</v>
+        <v>1.006240881722842</v>
       </c>
       <c r="E21">
-        <v>0.9898418671967799</v>
+        <v>0.994816337358402</v>
       </c>
       <c r="F21">
-        <v>0.943229859234478</v>
+        <v>1.00384304845587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034237517725487</v>
+        <v>1.036898966734261</v>
       </c>
       <c r="J21">
-        <v>1.009466720017254</v>
+        <v>1.014930161755737</v>
       </c>
       <c r="K21">
-        <v>1.016854150030281</v>
+        <v>1.021104975516181</v>
       </c>
       <c r="L21">
-        <v>1.005018278419958</v>
+        <v>1.009896585830124</v>
       </c>
       <c r="M21">
-        <v>0.9593729517985091</v>
+        <v>1.01875197705878</v>
       </c>
       <c r="N21">
-        <v>1.010900278547129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008894310186927</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.023413115062555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.975454750682459</v>
+        <v>0.9820825187177009</v>
       </c>
       <c r="D22">
-        <v>0.9992897854881353</v>
+        <v>1.004430181112411</v>
       </c>
       <c r="E22">
-        <v>0.9870113593820244</v>
+        <v>0.992766017871238</v>
       </c>
       <c r="F22">
-        <v>0.937261944053533</v>
+        <v>1.001604530761885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033147269392776</v>
+        <v>1.036257967312214</v>
       </c>
       <c r="J22">
-        <v>1.007311383000027</v>
+        <v>1.013629781316813</v>
       </c>
       <c r="K22">
-        <v>1.014875325008224</v>
+        <v>1.019914383171714</v>
       </c>
       <c r="L22">
-        <v>1.002844591012994</v>
+        <v>1.008482156515984</v>
       </c>
       <c r="M22">
-        <v>0.9541878583670712</v>
+        <v>1.017144268457639</v>
       </c>
       <c r="N22">
-        <v>1.008741880704118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00845501990283</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022140689171533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.97737887034457</v>
+        <v>0.9835186886815798</v>
       </c>
       <c r="D23">
-        <v>1.000684418648085</v>
+        <v>1.005393021345551</v>
       </c>
       <c r="E23">
-        <v>0.9885183008748715</v>
+        <v>0.9938560618485234</v>
       </c>
       <c r="F23">
-        <v>0.9404446096433149</v>
+        <v>1.00279460717831</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033728921407612</v>
+        <v>1.036599735833878</v>
       </c>
       <c r="J23">
-        <v>1.008459924507731</v>
+        <v>1.01432178592654</v>
       </c>
       <c r="K23">
-        <v>1.015929831813431</v>
+        <v>1.020548039443508</v>
       </c>
       <c r="L23">
-        <v>1.004002520984351</v>
+        <v>1.009234562758679</v>
       </c>
       <c r="M23">
-        <v>0.9569532215887108</v>
+        <v>1.017999371809466</v>
       </c>
       <c r="N23">
-        <v>1.009892053272502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008688795533181</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022817463633944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847555174416417</v>
+        <v>0.9890626399835526</v>
       </c>
       <c r="D24">
-        <v>1.006040942030088</v>
+        <v>1.009119170204295</v>
       </c>
       <c r="E24">
-        <v>0.9943124229646358</v>
+        <v>0.9980792513709533</v>
       </c>
       <c r="F24">
-        <v>0.9525702443138844</v>
+        <v>1.007405926284804</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035938936643016</v>
+        <v>1.03790219760162</v>
       </c>
       <c r="J24">
-        <v>1.012853288398608</v>
+        <v>1.016988313847539</v>
       </c>
       <c r="K24">
-        <v>1.019962796016981</v>
+        <v>1.022988013432697</v>
       </c>
       <c r="L24">
-        <v>1.008440160491363</v>
+        <v>1.012140181678339</v>
       </c>
       <c r="M24">
-        <v>0.9674848266774756</v>
+        <v>1.021304221921949</v>
       </c>
       <c r="N24">
-        <v>1.014291656244031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00958949431353</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025433092159406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9929404509608215</v>
+        <v>0.9952811186041194</v>
       </c>
       <c r="D25">
-        <v>1.012001928141431</v>
+        <v>1.013315922153142</v>
       </c>
       <c r="E25">
-        <v>1.000773612107579</v>
+        <v>1.002846133899676</v>
       </c>
       <c r="F25">
-        <v>0.9658982656235788</v>
+        <v>1.012612581083017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038349505920927</v>
+        <v>1.039327330929932</v>
       </c>
       <c r="J25">
-        <v>1.017707755372736</v>
+        <v>1.01996834226999</v>
       </c>
       <c r="K25">
-        <v>1.024416743425368</v>
+        <v>1.025710983474532</v>
       </c>
       <c r="L25">
-        <v>1.01335993060336</v>
+        <v>1.015400427391915</v>
       </c>
       <c r="M25">
-        <v>0.9790500882988047</v>
+        <v>1.025018207982993</v>
       </c>
       <c r="N25">
-        <v>1.019153017118077</v>
+        <v>1.010595777627424</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.028372519970771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000079734136954</v>
+        <v>1.000435810528133</v>
       </c>
       <c r="D2">
-        <v>1.01656647879655</v>
+        <v>1.016762612117709</v>
       </c>
       <c r="E2">
-        <v>1.006547089254071</v>
+        <v>1.00685769922527</v>
       </c>
       <c r="F2">
-        <v>1.016656813902358</v>
+        <v>1.016811067158025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040397066940713</v>
+        <v>1.040540153405547</v>
       </c>
       <c r="J2">
-        <v>1.022258060631658</v>
+        <v>1.022603494386803</v>
       </c>
       <c r="K2">
-        <v>1.027799741802656</v>
+        <v>1.027993254049257</v>
       </c>
       <c r="L2">
-        <v>1.017915960102306</v>
+        <v>1.018222315059333</v>
       </c>
       <c r="M2">
-        <v>1.027888869535891</v>
+        <v>1.028041061744679</v>
       </c>
       <c r="N2">
-        <v>1.011368644498374</v>
+        <v>1.013223371948636</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.030644491471856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030764943067473</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019586332075586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003476039070602</v>
+        <v>1.003709182829423</v>
       </c>
       <c r="D3">
-        <v>1.018873261497357</v>
+        <v>1.018892641899923</v>
       </c>
       <c r="E3">
-        <v>1.009178868512361</v>
+        <v>1.009382909197212</v>
       </c>
       <c r="F3">
-        <v>1.019534017558199</v>
+        <v>1.019634879443353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041136179696325</v>
+        <v>1.041195485228285</v>
       </c>
       <c r="J3">
-        <v>1.023872390217076</v>
+        <v>1.024099239982126</v>
       </c>
       <c r="K3">
-        <v>1.029270218901544</v>
+        <v>1.029289362626921</v>
       </c>
       <c r="L3">
-        <v>1.019695635837014</v>
+        <v>1.019897125299056</v>
       </c>
       <c r="M3">
-        <v>1.029922911992402</v>
+        <v>1.030022544238684</v>
       </c>
       <c r="N3">
-        <v>1.011913325754784</v>
+        <v>1.013624690679763</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032254320250267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032333173404389</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019832921112898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005634724845992</v>
+        <v>1.005790578149759</v>
       </c>
       <c r="D4">
-        <v>1.020342031732178</v>
+        <v>1.020249654848026</v>
       </c>
       <c r="E4">
-        <v>1.010857143394663</v>
+        <v>1.010994073985895</v>
       </c>
       <c r="F4">
-        <v>1.02136949123329</v>
+        <v>1.021436857859427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041597406568311</v>
+        <v>1.041603701446334</v>
       </c>
       <c r="J4">
-        <v>1.024895383853816</v>
+        <v>1.025047311311706</v>
       </c>
       <c r="K4">
-        <v>1.030200992324212</v>
+        <v>1.030109676237952</v>
       </c>
       <c r="L4">
-        <v>1.020826274784351</v>
+        <v>1.020961596671819</v>
       </c>
       <c r="M4">
-        <v>1.031216669094539</v>
+        <v>1.031283264193652</v>
       </c>
       <c r="N4">
-        <v>1.012258376569557</v>
+        <v>1.013879009612685</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033278253395824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033330959484816</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019986387280204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00653315565516</v>
+        <v>1.006657033006828</v>
       </c>
       <c r="D5">
-        <v>1.020953906418847</v>
+        <v>1.0208151520403</v>
       </c>
       <c r="E5">
-        <v>1.011556926238558</v>
+        <v>1.011666069764523</v>
       </c>
       <c r="F5">
-        <v>1.022134999111622</v>
+        <v>1.022188525095967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041787282239268</v>
+        <v>1.041771570089573</v>
       </c>
       <c r="J5">
-        <v>1.025320384498846</v>
+        <v>1.025441233693145</v>
       </c>
       <c r="K5">
-        <v>1.030587416858096</v>
+        <v>1.030450213861547</v>
       </c>
       <c r="L5">
-        <v>1.021296688532075</v>
+        <v>1.021404583991188</v>
       </c>
       <c r="M5">
-        <v>1.031755324997097</v>
+        <v>1.031808254358155</v>
       </c>
       <c r="N5">
-        <v>1.012401698831214</v>
+        <v>1.013984664529504</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033704567625619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033746458064708</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020049463870184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006683480570818</v>
+        <v>1.006802018688621</v>
       </c>
       <c r="D6">
-        <v>1.021056318074451</v>
+        <v>1.020909811625206</v>
       </c>
       <c r="E6">
-        <v>1.011674088845483</v>
+        <v>1.011778591324357</v>
       </c>
       <c r="F6">
-        <v>1.022263176723051</v>
+        <v>1.022314392605638</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041818928711605</v>
+        <v>1.041799537573178</v>
       </c>
       <c r="J6">
-        <v>1.025391449797513</v>
+        <v>1.025507104990728</v>
       </c>
       <c r="K6">
-        <v>1.030652016019489</v>
+        <v>1.030507140215265</v>
       </c>
       <c r="L6">
-        <v>1.021375388277764</v>
+        <v>1.021478701230714</v>
       </c>
       <c r="M6">
-        <v>1.031845463969685</v>
+        <v>1.031896111599094</v>
       </c>
       <c r="N6">
-        <v>1.012425662344422</v>
+        <v>1.014002331167293</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033775907256142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033815991836418</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020059970746101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005646765085742</v>
+        <v>1.005808886057079</v>
       </c>
       <c r="D7">
-        <v>1.020350229466195</v>
+        <v>1.020262411993689</v>
       </c>
       <c r="E7">
-        <v>1.010866516392352</v>
+        <v>1.011009031421126</v>
       </c>
       <c r="F7">
-        <v>1.021379743841328</v>
+        <v>1.021449819289774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041599959439663</v>
+        <v>1.041609234545833</v>
       </c>
       <c r="J7">
-        <v>1.024901082505998</v>
+        <v>1.025059121411972</v>
       </c>
       <c r="K7">
-        <v>1.030206174778072</v>
+        <v>1.030119365383361</v>
       </c>
       <c r="L7">
-        <v>1.020832579620953</v>
+        <v>1.020973420949259</v>
       </c>
       <c r="M7">
-        <v>1.031223887067076</v>
+        <v>1.031293160255998</v>
       </c>
       <c r="N7">
-        <v>1.012260298431039</v>
+        <v>1.013907973945843</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033283965995109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033338791633535</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019988725265966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001235746316632</v>
+        <v>1.001570429703294</v>
       </c>
       <c r="D8">
-        <v>1.017351082667264</v>
+        <v>1.017502933352245</v>
       </c>
       <c r="E8">
-        <v>1.007441703934799</v>
+        <v>1.007734277238072</v>
       </c>
       <c r="F8">
-        <v>1.017634717976139</v>
+        <v>1.017779637004012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040650411774605</v>
+        <v>1.040775041915625</v>
       </c>
       <c r="J8">
-        <v>1.022808162829209</v>
+        <v>1.02313317500572</v>
       </c>
       <c r="K8">
-        <v>1.0283010418687</v>
+        <v>1.028450922917161</v>
       </c>
       <c r="L8">
-        <v>1.018521807399648</v>
+        <v>1.018810492188536</v>
       </c>
       <c r="M8">
-        <v>1.028580998775259</v>
+        <v>1.028724039371417</v>
       </c>
       <c r="N8">
-        <v>1.011554273499768</v>
+        <v>1.01344389861544</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.031192272769712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031305481288815</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019675556851753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9931532079716302</v>
+        <v>0.9937888684424617</v>
       </c>
       <c r="D9">
-        <v>1.011877816403006</v>
+        <v>1.012456362131743</v>
       </c>
       <c r="E9">
-        <v>1.00121131314803</v>
+        <v>1.001764121771086</v>
       </c>
       <c r="F9">
-        <v>1.010826683264901</v>
+        <v>1.011102810280989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.038844295730017</v>
+        <v>1.039171308367028</v>
       </c>
       <c r="J9">
-        <v>1.01895008261893</v>
+        <v>1.019562880541488</v>
       </c>
       <c r="K9">
-        <v>1.024781079531188</v>
+        <v>1.02535052533213</v>
       </c>
       <c r="L9">
-        <v>1.014284768165091</v>
+        <v>1.014828642025497</v>
       </c>
       <c r="M9">
-        <v>1.023746513755572</v>
+        <v>1.024018284344661</v>
       </c>
       <c r="N9">
-        <v>1.010251981221971</v>
+        <v>1.012495150979281</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.027366041203152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027581133384141</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019071414435988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.987621627172923</v>
+        <v>0.9884963171783172</v>
       </c>
       <c r="D10">
-        <v>1.008159592945916</v>
+        <v>1.009054005456417</v>
       </c>
       <c r="E10">
-        <v>0.9969885353705532</v>
+        <v>0.9977477979961212</v>
       </c>
       <c r="F10">
-        <v>1.006451851251682</v>
+        <v>1.006832261394229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037586881705375</v>
+        <v>1.038066907933632</v>
       </c>
       <c r="J10">
-        <v>1.016335119347323</v>
+        <v>1.017173902679323</v>
       </c>
       <c r="K10">
-        <v>1.022383069848232</v>
+        <v>1.023261688880069</v>
       </c>
       <c r="L10">
-        <v>1.011412376454602</v>
+        <v>1.012157836061196</v>
       </c>
       <c r="M10">
-        <v>1.020705584513966</v>
+        <v>1.021079243335049</v>
       </c>
       <c r="N10">
-        <v>1.009372004035739</v>
+        <v>1.011972816213883</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025011593336884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025307306668566</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018658202650113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9858206899646852</v>
+        <v>0.9868027463498309</v>
       </c>
       <c r="D11">
-        <v>1.007037287925957</v>
+        <v>1.008047410403749</v>
       </c>
       <c r="E11">
-        <v>0.9956961946039387</v>
+        <v>0.9965480886944782</v>
       </c>
       <c r="F11">
-        <v>1.0069883277909</v>
+        <v>1.007412228185904</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037335814587425</v>
+        <v>1.037875875068848</v>
       </c>
       <c r="J11">
-        <v>1.015795477712788</v>
+        <v>1.01673504255463</v>
       </c>
       <c r="K11">
-        <v>1.02182770046814</v>
+        <v>1.022819143489572</v>
       </c>
       <c r="L11">
-        <v>1.010699733367321</v>
+        <v>1.01153539793692</v>
       </c>
       <c r="M11">
-        <v>1.021779646958624</v>
+        <v>1.022195701532754</v>
       </c>
       <c r="N11">
-        <v>1.009218063777964</v>
+        <v>1.012103543288369</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026304031144385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026633125630255</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018608731985841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853706652721366</v>
+        <v>0.9863795548009527</v>
       </c>
       <c r="D12">
-        <v>1.006799270651879</v>
+        <v>1.007833357864043</v>
       </c>
       <c r="E12">
-        <v>0.9954113898939883</v>
+        <v>0.9962858170302183</v>
       </c>
       <c r="F12">
-        <v>1.008011816305332</v>
+        <v>1.008444883353713</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037351093304802</v>
+        <v>1.037903902195616</v>
       </c>
       <c r="J12">
-        <v>1.015807333910796</v>
+        <v>1.016771755587489</v>
       </c>
       <c r="K12">
-        <v>1.021797356482043</v>
+        <v>1.022812006288749</v>
       </c>
       <c r="L12">
-        <v>1.010627031619489</v>
+        <v>1.011484522551115</v>
       </c>
       <c r="M12">
-        <v>1.022987115573016</v>
+        <v>1.023412061620355</v>
       </c>
       <c r="N12">
-        <v>1.009245331710325</v>
+        <v>1.012231620558725</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.027589348443293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027925359497661</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01863512152313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9859260874317098</v>
+        <v>0.986892736946591</v>
       </c>
       <c r="D13">
-        <v>1.007221644602591</v>
+        <v>1.008203895842557</v>
       </c>
       <c r="E13">
-        <v>0.9958773205525689</v>
+        <v>0.9967141585857252</v>
       </c>
       <c r="F13">
-        <v>1.009499088918475</v>
+        <v>1.009912170087954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037574207809753</v>
+        <v>1.038100099659285</v>
       </c>
       <c r="J13">
-        <v>1.016243410402636</v>
+        <v>1.017167676006604</v>
       </c>
       <c r="K13">
-        <v>1.022168211188955</v>
+        <v>1.023132080187931</v>
       </c>
       <c r="L13">
-        <v>1.011039632122807</v>
+        <v>1.011860335524283</v>
       </c>
       <c r="M13">
-        <v>1.024403105851043</v>
+        <v>1.024808496218518</v>
       </c>
       <c r="N13">
-        <v>1.009413473796099</v>
+        <v>1.012330328551091</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.028988277658477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02930874383014</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018720530376453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867616083586217</v>
+        <v>0.987668652203144</v>
       </c>
       <c r="D14">
-        <v>1.0078096804732</v>
+        <v>1.008722686072182</v>
       </c>
       <c r="E14">
-        <v>0.9965360544885089</v>
+        <v>0.9973205393997577</v>
       </c>
       <c r="F14">
-        <v>1.010724058730645</v>
+        <v>1.011110677824363</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037820165833172</v>
+        <v>1.038310056772905</v>
       </c>
       <c r="J14">
-        <v>1.01673213984918</v>
+        <v>1.017599984100702</v>
       </c>
       <c r="K14">
-        <v>1.022602583019893</v>
+        <v>1.023498714586806</v>
       </c>
       <c r="L14">
-        <v>1.011540647797779</v>
+        <v>1.012310199404155</v>
       </c>
       <c r="M14">
-        <v>1.025463237107847</v>
+        <v>1.025842759501292</v>
       </c>
       <c r="N14">
-        <v>1.009592031601385</v>
+        <v>1.012385157914198</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030000964261784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030300940547443</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018805579095404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9871911738484792</v>
+        <v>0.9880690450111037</v>
       </c>
       <c r="D15">
-        <v>1.008102798304475</v>
+        <v>1.00898244927517</v>
       </c>
       <c r="E15">
-        <v>0.9968667705211296</v>
+        <v>0.9976258115811609</v>
       </c>
       <c r="F15">
-        <v>1.011170351253122</v>
+        <v>1.011544335201321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037929354151377</v>
+        <v>1.038401984747977</v>
       </c>
       <c r="J15">
-        <v>1.016952316971333</v>
+        <v>1.017792578868912</v>
       </c>
       <c r="K15">
-        <v>1.022802420857651</v>
+        <v>1.023665937116259</v>
       </c>
       <c r="L15">
-        <v>1.01177576012381</v>
+        <v>1.012520463466167</v>
       </c>
       <c r="M15">
-        <v>1.025813866651352</v>
+        <v>1.026181040520653</v>
       </c>
       <c r="N15">
-        <v>1.009669161945417</v>
+        <v>1.012397288591194</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030315893723104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030606101988848</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018841027877442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9894054958871473</v>
+        <v>0.9901472815758485</v>
       </c>
       <c r="D16">
-        <v>1.00957750526409</v>
+        <v>1.01030065697573</v>
       </c>
       <c r="E16">
-        <v>0.9985418529039455</v>
+        <v>0.999183021847629</v>
       </c>
       <c r="F16">
-        <v>1.01277589746315</v>
+        <v>1.013091992992392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038422000289194</v>
+        <v>1.038814694592498</v>
       </c>
       <c r="J16">
-        <v>1.01796770076049</v>
+        <v>1.018679282740615</v>
       </c>
       <c r="K16">
-        <v>1.023739785364022</v>
+        <v>1.024450248653657</v>
       </c>
       <c r="L16">
-        <v>1.012900729326915</v>
+        <v>1.013530321600666</v>
       </c>
       <c r="M16">
-        <v>1.026882236145257</v>
+        <v>1.027192827841549</v>
       </c>
       <c r="N16">
-        <v>1.010006714866035</v>
+        <v>1.012425485566343</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03112133775394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.031366831456535</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018991642606267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9906743107110529</v>
+        <v>0.9913498562446367</v>
       </c>
       <c r="D17">
-        <v>1.010407292216986</v>
+        <v>1.011051712181416</v>
       </c>
       <c r="E17">
-        <v>0.9994897276343788</v>
+        <v>1.000073866674383</v>
       </c>
       <c r="F17">
-        <v>1.013370763835592</v>
+        <v>1.013659074561399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.03867185653292</v>
+        <v>1.039025202712131</v>
       </c>
       <c r="J17">
-        <v>1.018495639396545</v>
+        <v>1.019144553716874</v>
       </c>
       <c r="K17">
-        <v>1.024235271819936</v>
+        <v>1.02486870049455</v>
       </c>
       <c r="L17">
-        <v>1.0135067096928</v>
+        <v>1.01408060086427</v>
       </c>
       <c r="M17">
-        <v>1.027148347463958</v>
+        <v>1.027431775555356</v>
       </c>
       <c r="N17">
-        <v>1.010173640230916</v>
+        <v>1.012448238563094</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.031201666491871</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.031425712451422</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019064317982913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9912225012655067</v>
+        <v>0.9918777858088415</v>
       </c>
       <c r="D18">
-        <v>1.010736444158026</v>
+        <v>1.011356766824998</v>
       </c>
       <c r="E18">
-        <v>0.999874145057087</v>
+        <v>1.000441301108461</v>
       </c>
       <c r="F18">
-        <v>1.012988260240116</v>
+        <v>1.013268845004176</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.03872259409877</v>
+        <v>1.039064429447873</v>
       </c>
       <c r="J18">
-        <v>1.018621262907105</v>
+        <v>1.019251191727142</v>
       </c>
       <c r="K18">
-        <v>1.02437239078947</v>
+        <v>1.024982305403993</v>
       </c>
       <c r="L18">
-        <v>1.013695051274927</v>
+        <v>1.014252421465848</v>
       </c>
       <c r="M18">
-        <v>1.026586503292788</v>
+        <v>1.026862405175968</v>
       </c>
       <c r="N18">
-        <v>1.010198130641131</v>
+        <v>1.012422819534836</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.030517690353942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.030735833094346</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019068981830742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9910892388008076</v>
+        <v>0.9917620918788245</v>
       </c>
       <c r="D19">
-        <v>1.010590483131977</v>
+        <v>1.011234242409623</v>
       </c>
       <c r="E19">
-        <v>0.999723078667386</v>
+        <v>1.000306139044794</v>
       </c>
       <c r="F19">
-        <v>1.011613742171819</v>
+        <v>1.011903341694813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038582433246026</v>
+        <v>1.038936425717436</v>
       </c>
       <c r="J19">
-        <v>1.018356539225297</v>
+        <v>1.019003500226517</v>
       </c>
       <c r="K19">
-        <v>1.024165304516703</v>
+        <v>1.024798316643363</v>
       </c>
       <c r="L19">
-        <v>1.013482024741348</v>
+        <v>1.014055075153558</v>
       </c>
       <c r="M19">
-        <v>1.025171489153974</v>
+        <v>1.025456264409359</v>
       </c>
       <c r="N19">
-        <v>1.010086655979518</v>
+        <v>1.012328499333951</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.029069707232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.029294940856317</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019007122645041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9890566370363099</v>
+        <v>0.9898501578420767</v>
       </c>
       <c r="D20">
-        <v>1.009123187509466</v>
+        <v>1.009920713556022</v>
       </c>
       <c r="E20">
-        <v>0.9980819228263811</v>
+        <v>0.9987706338324492</v>
       </c>
       <c r="F20">
-        <v>1.007595183453262</v>
+        <v>1.007940172546513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.037916924736031</v>
+        <v>1.038347915442846</v>
       </c>
       <c r="J20">
-        <v>1.017016023721255</v>
+        <v>1.017778024582253</v>
       </c>
       <c r="K20">
-        <v>1.023007491433024</v>
+        <v>1.023791333783135</v>
       </c>
       <c r="L20">
-        <v>1.012158583366127</v>
+        <v>1.012835134662</v>
       </c>
       <c r="M20">
-        <v>1.021505782631925</v>
+        <v>1.021844825835148</v>
       </c>
       <c r="N20">
-        <v>1.009601299340616</v>
+        <v>1.012036468853645</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025634153316915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.025902475184961</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018762717850631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.984782114404</v>
+        <v>0.9858572393719179</v>
       </c>
       <c r="D21">
-        <v>1.006240881722842</v>
+        <v>1.007360028497022</v>
       </c>
       <c r="E21">
-        <v>0.994816337358402</v>
+        <v>0.9957507670496407</v>
       </c>
       <c r="F21">
-        <v>1.00384304845587</v>
+        <v>1.004311612665867</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036898966734261</v>
+        <v>1.03749632598971</v>
       </c>
       <c r="J21">
-        <v>1.014930161755737</v>
+        <v>1.015958399743512</v>
       </c>
       <c r="K21">
-        <v>1.021104975516181</v>
+        <v>1.022203291722515</v>
       </c>
       <c r="L21">
-        <v>1.009896585830124</v>
+        <v>1.01081309212597</v>
       </c>
       <c r="M21">
-        <v>1.01875197705878</v>
+        <v>1.019211758057849</v>
       </c>
       <c r="N21">
-        <v>1.008894310186927</v>
+        <v>1.011962206616147</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.023413115062555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.023777009700554</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01844396334156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9820825187177009</v>
+        <v>0.9833351188404573</v>
       </c>
       <c r="D22">
-        <v>1.004430181112411</v>
+        <v>1.005751761122278</v>
       </c>
       <c r="E22">
-        <v>0.992766017871238</v>
+        <v>0.9938551681059615</v>
       </c>
       <c r="F22">
-        <v>1.001604530761885</v>
+        <v>1.002151016063326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036257967312214</v>
+        <v>1.036959961333692</v>
       </c>
       <c r="J22">
-        <v>1.013629781316813</v>
+        <v>1.014824585330931</v>
       </c>
       <c r="K22">
-        <v>1.019914383171714</v>
+        <v>1.021210129192177</v>
       </c>
       <c r="L22">
-        <v>1.008482156515984</v>
+        <v>1.009549346130892</v>
       </c>
       <c r="M22">
-        <v>1.017144268457639</v>
+        <v>1.017679981002485</v>
       </c>
       <c r="N22">
-        <v>1.00845501990283</v>
+        <v>1.011914702996711</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022140689171533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.022564680770564</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018244375398333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9835186886815798</v>
+        <v>0.984665895204003</v>
       </c>
       <c r="D23">
-        <v>1.005393021345551</v>
+        <v>1.006598233072645</v>
       </c>
       <c r="E23">
-        <v>0.9938560618485234</v>
+        <v>0.9948530747240564</v>
       </c>
       <c r="F23">
-        <v>1.00279460717831</v>
+        <v>1.003294832159132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036599735833878</v>
+        <v>1.0372405904116</v>
       </c>
       <c r="J23">
-        <v>1.01432178592654</v>
+        <v>1.015417607219542</v>
       </c>
       <c r="K23">
-        <v>1.020548039443508</v>
+        <v>1.021730291469351</v>
       </c>
       <c r="L23">
-        <v>1.009234562758679</v>
+        <v>1.010211993910173</v>
       </c>
       <c r="M23">
-        <v>1.017999371809466</v>
+        <v>1.018489993783956</v>
       </c>
       <c r="N23">
-        <v>1.008688795533181</v>
+        <v>1.011898324664457</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022817463633944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.023205767761622</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018348289582197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9890626399835526</v>
+        <v>0.9898570585951412</v>
       </c>
       <c r="D24">
-        <v>1.009119170204295</v>
+        <v>1.00991822446595</v>
       </c>
       <c r="E24">
-        <v>0.9980792513709533</v>
+        <v>0.9987688133754736</v>
       </c>
       <c r="F24">
-        <v>1.007405926284804</v>
+        <v>1.007751572956993</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.03790219760162</v>
+        <v>1.038333961745637</v>
       </c>
       <c r="J24">
-        <v>1.016988313847539</v>
+        <v>1.017751221885459</v>
       </c>
       <c r="K24">
-        <v>1.022988013432697</v>
+        <v>1.023773375292056</v>
       </c>
       <c r="L24">
-        <v>1.012140181678339</v>
+        <v>1.012817584583024</v>
       </c>
       <c r="M24">
-        <v>1.021304221921949</v>
+        <v>1.021643916149416</v>
       </c>
       <c r="N24">
-        <v>1.00958949431353</v>
+        <v>1.012023499875591</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025433092159406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.025701943089537</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018755547078005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9952811186041194</v>
+        <v>0.9958284728658726</v>
       </c>
       <c r="D25">
-        <v>1.013315922153142</v>
+        <v>1.013775182318806</v>
       </c>
       <c r="E25">
-        <v>1.002846133899676</v>
+        <v>1.003322515271396</v>
       </c>
       <c r="F25">
-        <v>1.012612581083017</v>
+        <v>1.012850148497402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039327330929932</v>
+        <v>1.039596815169201</v>
       </c>
       <c r="J25">
-        <v>1.01996834226999</v>
+        <v>1.020497045733197</v>
       </c>
       <c r="K25">
-        <v>1.025710983474532</v>
+        <v>1.026163354709801</v>
       </c>
       <c r="L25">
-        <v>1.015400427391915</v>
+        <v>1.015869471498663</v>
       </c>
       <c r="M25">
-        <v>1.025018207982993</v>
+        <v>1.025252204574325</v>
       </c>
       <c r="N25">
-        <v>1.010595777627424</v>
+        <v>1.012713089135886</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.028372519970771</v>
+        <v>1.028557715745069</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019231518922419</v>
       </c>
     </row>
   </sheetData>
